--- a/natmiOut/OldD7/LR-pairs_lrc2p/Jag2-Notch2.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Jag2-Notch2.xlsx
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>20.2616529261906</v>
+        <v>20.70050833333333</v>
       </c>
       <c r="H2">
-        <v>20.2616529261906</v>
+        <v>62.101525</v>
       </c>
       <c r="I2">
-        <v>0.8444188084519779</v>
+        <v>0.8277101186170105</v>
       </c>
       <c r="J2">
-        <v>0.8444188084519779</v>
+        <v>0.8277101186170105</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.68601823730102</v>
+        <v>2.993142333333334</v>
       </c>
       <c r="N2">
-        <v>2.68601823730102</v>
+        <v>8.979427000000001</v>
       </c>
       <c r="O2">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="P2">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="Q2">
-        <v>54.42316927761153</v>
+        <v>61.95956781401944</v>
       </c>
       <c r="R2">
-        <v>54.42316927761153</v>
+        <v>557.6361103261751</v>
       </c>
       <c r="S2">
-        <v>0.02801644688367773</v>
+        <v>0.02884061456367948</v>
       </c>
       <c r="T2">
-        <v>0.02801644688367773</v>
+        <v>0.02884061456367949</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>20.2616529261906</v>
+        <v>20.70050833333333</v>
       </c>
       <c r="H3">
-        <v>20.2616529261906</v>
+        <v>62.101525</v>
       </c>
       <c r="I3">
-        <v>0.8444188084519779</v>
+        <v>0.8277101186170105</v>
       </c>
       <c r="J3">
-        <v>0.8444188084519779</v>
+        <v>0.8277101186170105</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.9841461804462</v>
+        <v>31.995262</v>
       </c>
       <c r="N3">
-        <v>31.9841461804462</v>
+        <v>95.985786</v>
       </c>
       <c r="O3">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459734</v>
       </c>
       <c r="P3">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459735</v>
       </c>
       <c r="Q3">
-        <v>648.0516690487456</v>
+        <v>662.3181876581833</v>
       </c>
       <c r="R3">
-        <v>648.0516690487456</v>
+        <v>5960.86368892365</v>
       </c>
       <c r="S3">
-        <v>0.333609846776268</v>
+        <v>0.3082923952294307</v>
       </c>
       <c r="T3">
-        <v>0.333609846776268</v>
+        <v>0.3082923952294308</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,52 +655,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>20.2616529261906</v>
+        <v>20.70050833333333</v>
       </c>
       <c r="H4">
-        <v>20.2616529261906</v>
+        <v>62.101525</v>
       </c>
       <c r="I4">
-        <v>0.8444188084519779</v>
+        <v>0.8277101186170105</v>
       </c>
       <c r="J4">
-        <v>0.8444188084519779</v>
+        <v>0.8277101186170105</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>30.4604161887433</v>
+        <v>34.28929533333334</v>
       </c>
       <c r="N4">
-        <v>30.4604161887433</v>
+        <v>102.867886</v>
       </c>
       <c r="O4">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="P4">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="Q4">
-        <v>617.1783808036341</v>
+        <v>709.8058437917945</v>
       </c>
       <c r="R4">
-        <v>617.1783808036341</v>
+        <v>6388.252594126149</v>
       </c>
       <c r="S4">
-        <v>0.3177166187315819</v>
+        <v>0.3303967002690172</v>
       </c>
       <c r="T4">
-        <v>0.3177166187315819</v>
+        <v>0.3303967002690172</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,52 +717,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>20.2616529261906</v>
+        <v>20.70050833333333</v>
       </c>
       <c r="H5">
-        <v>20.2616529261906</v>
+        <v>62.101525</v>
       </c>
       <c r="I5">
-        <v>0.8444188084519779</v>
+        <v>0.8277101186170105</v>
       </c>
       <c r="J5">
-        <v>0.8444188084519779</v>
+        <v>0.8277101186170105</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>15.8263062121378</v>
+        <v>16.62387466666667</v>
       </c>
       <c r="N5">
-        <v>15.8263062121378</v>
+        <v>49.871624</v>
       </c>
       <c r="O5">
-        <v>0.1954905485384369</v>
+        <v>0.1935223515480544</v>
       </c>
       <c r="P5">
-        <v>0.1954905485384369</v>
+        <v>0.1935223515480545</v>
       </c>
       <c r="Q5">
-        <v>320.6671235739503</v>
+        <v>344.1226560696222</v>
       </c>
       <c r="R5">
-        <v>320.6671235739503</v>
+        <v>3097.1039046266</v>
       </c>
       <c r="S5">
-        <v>0.1650758960604504</v>
+        <v>0.1601804085548829</v>
       </c>
       <c r="T5">
-        <v>0.1650758960604504</v>
+        <v>0.160180408554883</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -779,52 +779,52 @@
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.780055535763609</v>
+        <v>0.7925996666666667</v>
       </c>
       <c r="H6">
-        <v>0.780055535763609</v>
+        <v>2.377799</v>
       </c>
       <c r="I6">
-        <v>0.03250936971605294</v>
+        <v>0.03169210888681734</v>
       </c>
       <c r="J6">
-        <v>0.03250936971605294</v>
+        <v>0.03169210888681734</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.68601823730102</v>
+        <v>2.993142333333334</v>
       </c>
       <c r="N6">
-        <v>2.68601823730102</v>
+        <v>8.979427000000001</v>
       </c>
       <c r="O6">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="P6">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="Q6">
-        <v>2.095243395168672</v>
+        <v>2.372363615685889</v>
       </c>
       <c r="R6">
-        <v>2.095243395168672</v>
+        <v>21.351272541173</v>
       </c>
       <c r="S6">
-        <v>0.001078608174942654</v>
+        <v>0.001104275369548534</v>
       </c>
       <c r="T6">
-        <v>0.001078608174942654</v>
+        <v>0.001104275369548534</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -841,52 +841,52 @@
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.780055535763609</v>
+        <v>0.7925996666666667</v>
       </c>
       <c r="H7">
-        <v>0.780055535763609</v>
+        <v>2.377799</v>
       </c>
       <c r="I7">
-        <v>0.03250936971605294</v>
+        <v>0.03169210888681734</v>
       </c>
       <c r="J7">
-        <v>0.03250936971605294</v>
+        <v>0.03169210888681734</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.9841461804462</v>
+        <v>31.995262</v>
       </c>
       <c r="N7">
-        <v>31.9841461804462</v>
+        <v>95.985786</v>
       </c>
       <c r="O7">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459734</v>
       </c>
       <c r="P7">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459735</v>
       </c>
       <c r="Q7">
-        <v>24.94941028472955</v>
+        <v>25.35943399611267</v>
       </c>
       <c r="R7">
-        <v>24.94941028472955</v>
+        <v>228.234905965014</v>
       </c>
       <c r="S7">
-        <v>0.01284368105164281</v>
+        <v>0.01180417629171176</v>
       </c>
       <c r="T7">
-        <v>0.01284368105164281</v>
+        <v>0.01180417629171176</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,52 +903,52 @@
         <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.780055535763609</v>
+        <v>0.7925996666666667</v>
       </c>
       <c r="H8">
-        <v>0.780055535763609</v>
+        <v>2.377799</v>
       </c>
       <c r="I8">
-        <v>0.03250936971605294</v>
+        <v>0.03169210888681734</v>
       </c>
       <c r="J8">
-        <v>0.03250936971605294</v>
+        <v>0.03169210888681734</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>30.4604161887433</v>
+        <v>34.28929533333334</v>
       </c>
       <c r="N8">
-        <v>30.4604161887433</v>
+        <v>102.867886</v>
       </c>
       <c r="O8">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="P8">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="Q8">
-        <v>23.76081626969266</v>
+        <v>27.17768405143489</v>
       </c>
       <c r="R8">
-        <v>23.76081626969266</v>
+        <v>244.599156462914</v>
       </c>
       <c r="S8">
-        <v>0.01223180597103744</v>
+        <v>0.01265052578826315</v>
       </c>
       <c r="T8">
-        <v>0.01223180597103744</v>
+        <v>0.01265052578826315</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,52 +965,52 @@
         <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.780055535763609</v>
+        <v>0.7925996666666667</v>
       </c>
       <c r="H9">
-        <v>0.780055535763609</v>
+        <v>2.377799</v>
       </c>
       <c r="I9">
-        <v>0.03250936971605294</v>
+        <v>0.03169210888681734</v>
       </c>
       <c r="J9">
-        <v>0.03250936971605294</v>
+        <v>0.03169210888681734</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>15.8263062121378</v>
+        <v>16.62387466666667</v>
       </c>
       <c r="N9">
-        <v>15.8263062121378</v>
+        <v>49.871624</v>
       </c>
       <c r="O9">
-        <v>0.1954905485384369</v>
+        <v>0.1935223515480544</v>
       </c>
       <c r="P9">
-        <v>0.1954905485384369</v>
+        <v>0.1935223515480545</v>
       </c>
       <c r="Q9">
-        <v>12.34539777146808</v>
+        <v>13.17607751950844</v>
       </c>
       <c r="R9">
-        <v>12.34539777146808</v>
+        <v>118.584697675576</v>
       </c>
       <c r="S9">
-        <v>0.006355274518430037</v>
+        <v>0.006133131437293885</v>
       </c>
       <c r="T9">
-        <v>0.006355274518430037</v>
+        <v>0.006133131437293886</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,52 +1027,52 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.3068196933829</v>
+        <v>1.562510666666667</v>
       </c>
       <c r="H10">
-        <v>1.3068196933829</v>
+        <v>4.687532</v>
       </c>
       <c r="I10">
-        <v>0.05446264094878253</v>
+        <v>0.06247701111592723</v>
       </c>
       <c r="J10">
-        <v>0.05446264094878253</v>
+        <v>0.06247701111592723</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.68601823730102</v>
+        <v>2.993142333333334</v>
       </c>
       <c r="N10">
-        <v>2.68601823730102</v>
+        <v>8.979427000000001</v>
       </c>
       <c r="O10">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="P10">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="Q10">
-        <v>3.510141529290596</v>
+        <v>4.676816822684889</v>
       </c>
       <c r="R10">
-        <v>3.510141529290596</v>
+        <v>42.09135140416401</v>
       </c>
       <c r="S10">
-        <v>0.001806982118368047</v>
+        <v>0.002176940158344156</v>
       </c>
       <c r="T10">
-        <v>0.001806982118368047</v>
+        <v>0.002176940158344157</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,52 +1089,52 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.3068196933829</v>
+        <v>1.562510666666667</v>
       </c>
       <c r="H11">
-        <v>1.3068196933829</v>
+        <v>4.687532</v>
       </c>
       <c r="I11">
-        <v>0.05446264094878253</v>
+        <v>0.06247701111592723</v>
       </c>
       <c r="J11">
-        <v>0.05446264094878253</v>
+        <v>0.06247701111592723</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>31.9841461804462</v>
+        <v>31.995262</v>
       </c>
       <c r="N11">
-        <v>31.9841461804462</v>
+        <v>95.985786</v>
       </c>
       <c r="O11">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459734</v>
       </c>
       <c r="P11">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459735</v>
       </c>
       <c r="Q11">
-        <v>41.79751210464455</v>
+        <v>49.99293815779467</v>
       </c>
       <c r="R11">
-        <v>41.79751210464455</v>
+        <v>449.936443420152</v>
       </c>
       <c r="S11">
-        <v>0.02151689791853745</v>
+        <v>0.02327045057258423</v>
       </c>
       <c r="T11">
-        <v>0.02151689791853745</v>
+        <v>0.02327045057258424</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,52 +1151,52 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.3068196933829</v>
+        <v>1.562510666666667</v>
       </c>
       <c r="H12">
-        <v>1.3068196933829</v>
+        <v>4.687532</v>
       </c>
       <c r="I12">
-        <v>0.05446264094878253</v>
+        <v>0.06247701111592723</v>
       </c>
       <c r="J12">
-        <v>0.05446264094878253</v>
+        <v>0.06247701111592723</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>30.4604161887433</v>
+        <v>34.28929533333334</v>
       </c>
       <c r="N12">
-        <v>30.4604161887433</v>
+        <v>102.867886</v>
       </c>
       <c r="O12">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="P12">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="Q12">
-        <v>39.80627174408904</v>
+        <v>53.57738971081689</v>
       </c>
       <c r="R12">
-        <v>39.80627174408904</v>
+        <v>482.196507397352</v>
       </c>
       <c r="S12">
-        <v>0.02049182935794761</v>
+        <v>0.02493892227615066</v>
       </c>
       <c r="T12">
-        <v>0.02049182935794761</v>
+        <v>0.02493892227615066</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,52 +1213,52 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.3068196933829</v>
+        <v>1.562510666666667</v>
       </c>
       <c r="H13">
-        <v>1.3068196933829</v>
+        <v>4.687532</v>
       </c>
       <c r="I13">
-        <v>0.05446264094878253</v>
+        <v>0.06247701111592723</v>
       </c>
       <c r="J13">
-        <v>0.05446264094878253</v>
+        <v>0.06247701111592723</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>15.8263062121378</v>
+        <v>16.62387466666667</v>
       </c>
       <c r="N13">
-        <v>15.8263062121378</v>
+        <v>49.871624</v>
       </c>
       <c r="O13">
-        <v>0.1954905485384369</v>
+        <v>0.1935223515480544</v>
       </c>
       <c r="P13">
-        <v>0.1954905485384369</v>
+        <v>0.1935223515480545</v>
       </c>
       <c r="Q13">
-        <v>20.6821286315298</v>
+        <v>25.97498148799644</v>
       </c>
       <c r="R13">
-        <v>20.6821286315298</v>
+        <v>233.774833391968</v>
       </c>
       <c r="S13">
-        <v>0.01064693155392943</v>
+        <v>0.01209069810884817</v>
       </c>
       <c r="T13">
-        <v>0.01064693155392943</v>
+        <v>0.01209069810884818</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,52 +1275,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.64626296417273</v>
+        <v>1.953751</v>
       </c>
       <c r="H14">
-        <v>1.64626296417273</v>
+        <v>5.861253</v>
       </c>
       <c r="I14">
-        <v>0.0686091808831866</v>
+        <v>0.07812076138024482</v>
       </c>
       <c r="J14">
-        <v>0.0686091808831866</v>
+        <v>0.07812076138024483</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.68601823730102</v>
+        <v>2.993142333333334</v>
       </c>
       <c r="N14">
-        <v>2.68601823730102</v>
+        <v>8.979427000000001</v>
       </c>
       <c r="O14">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="P14">
-        <v>0.03317837855250831</v>
+        <v>0.03484385887642424</v>
       </c>
       <c r="Q14">
-        <v>4.421892345161188</v>
+        <v>5.847854826892333</v>
       </c>
       <c r="R14">
-        <v>4.421892345161188</v>
+        <v>52.630693442031</v>
       </c>
       <c r="S14">
-        <v>0.002276341375519882</v>
+        <v>0.002722028784852063</v>
       </c>
       <c r="T14">
-        <v>0.002276341375519882</v>
+        <v>0.002722028784852064</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,52 +1337,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.64626296417273</v>
+        <v>1.953751</v>
       </c>
       <c r="H15">
-        <v>1.64626296417273</v>
+        <v>5.861253</v>
       </c>
       <c r="I15">
-        <v>0.0686091808831866</v>
+        <v>0.07812076138024482</v>
       </c>
       <c r="J15">
-        <v>0.0686091808831866</v>
+        <v>0.07812076138024483</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>31.9841461804462</v>
+        <v>31.995262</v>
       </c>
       <c r="N15">
-        <v>31.9841461804462</v>
+        <v>95.985786</v>
       </c>
       <c r="O15">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459734</v>
       </c>
       <c r="P15">
-        <v>0.3950762861237717</v>
+        <v>0.3724642097459735</v>
       </c>
       <c r="Q15">
-        <v>52.65431529755526</v>
+        <v>62.510775127762</v>
       </c>
       <c r="R15">
-        <v>52.65431529755526</v>
+        <v>562.5969761498579</v>
       </c>
       <c r="S15">
-        <v>0.02710586037732344</v>
+        <v>0.02909718765224665</v>
       </c>
       <c r="T15">
-        <v>0.02710586037732344</v>
+        <v>0.02909718765224666</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,52 +1399,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.64626296417273</v>
+        <v>1.953751</v>
       </c>
       <c r="H16">
-        <v>1.64626296417273</v>
+        <v>5.861253</v>
       </c>
       <c r="I16">
-        <v>0.0686091808831866</v>
+        <v>0.07812076138024482</v>
       </c>
       <c r="J16">
-        <v>0.0686091808831866</v>
+        <v>0.07812076138024483</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>30.4604161887433</v>
+        <v>34.28929533333334</v>
       </c>
       <c r="N16">
-        <v>30.4604161887433</v>
+        <v>102.867886</v>
       </c>
       <c r="O16">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="P16">
-        <v>0.3762547867852832</v>
+        <v>0.3991695798295478</v>
       </c>
       <c r="Q16">
-        <v>50.14585504481555</v>
+        <v>66.99274504679533</v>
       </c>
       <c r="R16">
-        <v>50.14585504481555</v>
+        <v>602.9347054211579</v>
       </c>
       <c r="S16">
-        <v>0.02581453272471631</v>
+        <v>0.03118343149611669</v>
       </c>
       <c r="T16">
-        <v>0.02581453272471631</v>
+        <v>0.03118343149611669</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1.64626296417273</v>
+        <v>1.953751</v>
       </c>
       <c r="H17">
-        <v>1.64626296417273</v>
+        <v>5.861253</v>
       </c>
       <c r="I17">
-        <v>0.0686091808831866</v>
+        <v>0.07812076138024482</v>
       </c>
       <c r="J17">
-        <v>0.0686091808831866</v>
+        <v>0.07812076138024483</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>15.8263062121378</v>
+        <v>16.62387466666667</v>
       </c>
       <c r="N17">
-        <v>15.8263062121378</v>
+        <v>49.871624</v>
       </c>
       <c r="O17">
-        <v>0.1954905485384369</v>
+        <v>0.1935223515480544</v>
       </c>
       <c r="P17">
-        <v>0.1954905485384369</v>
+        <v>0.1935223515480545</v>
       </c>
       <c r="Q17">
-        <v>26.05426177669926</v>
+        <v>32.47891175387466</v>
       </c>
       <c r="R17">
-        <v>26.05426177669926</v>
+        <v>292.310205784872</v>
       </c>
       <c r="S17">
-        <v>0.01341244640562699</v>
+        <v>0.01511811344702941</v>
       </c>
       <c r="T17">
-        <v>0.01341244640562699</v>
+        <v>0.01511811344702942</v>
       </c>
     </row>
   </sheetData>
